--- a/Relation Extraction Summary.xlsx
+++ b/Relation Extraction Summary.xlsx
@@ -8,19 +8,20 @@
     <sheet state="visible" name="Keterangan" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Uji Coba-3" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Graphics Uji-3" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Uji C0ba -4" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhl/NLVxcRzigNwvOW3OrbVpYjfOA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7miszWX64t7zeGUfwmnLH3RRF26MaQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="58">
   <si>
     <t>Model Input</t>
   </si>
@@ -196,6 +197,9 @@
   <si>
     <t>BIONLP PubMedBert</t>
   </si>
+  <si>
+    <t>Length</t>
+  </si>
 </sst>
 </file>
 
@@ -204,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh&quot;.&quot;mm&quot;.&quot;ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -220,6 +224,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -243,14 +252,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -287,12 +302,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEAD1DC"/>
         <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -376,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -406,7 +415,15 @@
     <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -415,10 +432,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -427,18 +444,26 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="11" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +557,7 @@
     <xdr:ext cx="3848100" cy="2895600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Gambar"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Gambar"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -560,7 +585,7 @@
     <xdr:ext cx="3848100" cy="2895600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Gambar"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Gambar"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -579,6 +604,10 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1387,98 +1416,98 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" ht="26.25" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="3">
+      <c r="C14" s="9">
         <v>0.6809</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="9">
         <v>0.7234</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="9">
         <v>0.6809</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="10">
         <v>0.7872</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="9">
         <v>0.6809</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="9">
         <v>0.7021</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
     </row>
     <row r="15" ht="26.25" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="9">
+      <c r="C15" s="13">
         <v>0.52</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="13">
         <v>0.7914</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="13">
         <v>0.7632</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="13">
         <v>0.8343</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="13">
         <v>0.7493</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="13">
         <v>0.7723</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
     </row>
     <row r="16" ht="26.25" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="3">
@@ -1521,8 +1550,8 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" ht="26.25" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3">
@@ -1565,11 +1594,11 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" ht="26.25" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="18">
         <v>0.5</v>
       </c>
       <c r="D18" s="3">
@@ -1609,26 +1638,26 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" ht="26.25" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="18">
         <v>0.0</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="18">
         <v>1.0</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="18">
         <v>1.0</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="18">
         <v>1.0</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="18">
         <v>1.0</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="18">
         <v>1.0</v>
       </c>
       <c r="I19" s="4"/>
@@ -1653,8 +1682,8 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" ht="26.25" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3">
@@ -1697,8 +1726,8 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" ht="26.25" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="3">
@@ -1710,21 +1739,21 @@
       <c r="E21" s="3">
         <v>0.71</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="18">
         <v>0.8</v>
       </c>
       <c r="G21" s="3">
         <v>0.69</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="18">
         <v>0.7</v>
       </c>
     </row>
     <row r="22" ht="26.25" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="3">
@@ -1747,8 +1776,8 @@
       </c>
     </row>
     <row r="23" ht="26.25" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="3">
@@ -1771,11 +1800,11 @@
       </c>
     </row>
     <row r="24" ht="26.25" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="18">
         <v>0.8</v>
       </c>
       <c r="D24" s="3">
@@ -1787,7 +1816,7 @@
       <c r="F24" s="3">
         <v>0.67</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="18">
         <v>0.6</v>
       </c>
       <c r="H24" s="3">
@@ -1795,32 +1824,32 @@
       </c>
     </row>
     <row r="25" ht="26.25" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="18">
         <v>0.0</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="18">
         <v>1.0</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="18">
         <v>1.0</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="18">
         <v>1.0</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="18">
         <v>1.0</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="26.25" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="3">
@@ -1843,8 +1872,8 @@
       </c>
     </row>
     <row r="27" ht="26.25" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="3">
@@ -1862,18 +1891,18 @@
       <c r="G27" s="3">
         <v>0.68</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="18">
         <v>0.7</v>
       </c>
     </row>
     <row r="28" ht="26.25" customHeight="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="18">
         <v>0.7</v>
       </c>
       <c r="D28" s="3">
@@ -1893,8 +1922,8 @@
       </c>
     </row>
     <row r="29" ht="26.25" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="3">
@@ -1903,7 +1932,7 @@
       <c r="D29" s="3">
         <v>0.76</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="18">
         <v>0.7</v>
       </c>
       <c r="F29" s="3">
@@ -1912,13 +1941,13 @@
       <c r="G29" s="3">
         <v>0.75</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="18">
         <v>0.7</v>
       </c>
     </row>
     <row r="30" ht="26.25" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="3">
@@ -1941,32 +1970,32 @@
       </c>
     </row>
     <row r="31" ht="26.25" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="18">
         <v>0.0</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="18">
         <v>1.0</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="18">
         <v>1.0</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="18">
         <v>1.0</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="18">
         <v>1.0</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="26.25" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="3">
@@ -1984,13 +2013,13 @@
       <c r="G32" s="3">
         <v>0.68</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="18">
         <v>0.7</v>
       </c>
     </row>
     <row r="33" ht="26.25" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="3">
@@ -2013,8 +2042,8 @@
       </c>
     </row>
     <row r="34" ht="26.25" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="3">
@@ -2032,7 +2061,7 @@
       <c r="G34" s="3">
         <v>0.68</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="18">
         <v>0.7</v>
       </c>
     </row>
@@ -2085,1604 +2114,1604 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="18"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="22"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="22"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="22"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="18"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="18"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
-      <c r="H145" s="18"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="18"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="22"/>
+      <c r="H150" s="22"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="22"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
+      <c r="H152" s="22"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="22"/>
+      <c r="H156" s="22"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="22"/>
+      <c r="H157" s="22"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="22"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="22"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="18"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="22"/>
+      <c r="H161" s="22"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="22"/>
+      <c r="H162" s="22"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="18"/>
-      <c r="H165" s="18"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="18"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="22"/>
+      <c r="H166" s="22"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="22"/>
+      <c r="H167" s="22"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="22"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="22"/>
+      <c r="H168" s="22"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
+      <c r="H169" s="22"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22"/>
+      <c r="H170" s="22"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
+      <c r="H172" s="22"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="22"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="18"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="22"/>
+      <c r="H175" s="22"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
+      <c r="H176" s="22"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="C178" s="18"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="22"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="22"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="22"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="22"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="22"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
+      <c r="H181" s="22"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="18"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="22"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="18"/>
-      <c r="G183" s="18"/>
-      <c r="H183" s="18"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="22"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="22"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="18"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="22"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="22"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="18"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="22"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
+      <c r="H185" s="22"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="22"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
+      <c r="H186" s="22"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18"/>
-      <c r="F187" s="18"/>
-      <c r="G187" s="18"/>
-      <c r="H187" s="18"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="22"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="22"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="18"/>
-      <c r="G188" s="18"/>
-      <c r="H188" s="18"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
+      <c r="H188" s="22"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="C189" s="18"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18"/>
-      <c r="G189" s="18"/>
-      <c r="H189" s="18"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="18"/>
-      <c r="H190" s="18"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="22"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
+      <c r="H190" s="22"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="18"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="18"/>
-      <c r="H191" s="18"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
+      <c r="H191" s="22"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="18"/>
-      <c r="G192" s="18"/>
-      <c r="H192" s="18"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="22"/>
+      <c r="H192" s="22"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="18"/>
-      <c r="H193" s="18"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22"/>
+      <c r="H193" s="22"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="18"/>
-      <c r="H194" s="18"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="22"/>
+      <c r="E194" s="22"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="22"/>
+      <c r="H194" s="22"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="18"/>
-      <c r="H195" s="18"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="22"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
-      <c r="H196" s="18"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="22"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="22"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="C197" s="18"/>
-      <c r="D197" s="18"/>
-      <c r="E197" s="18"/>
-      <c r="F197" s="18"/>
-      <c r="G197" s="18"/>
-      <c r="H197" s="18"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="22"/>
+      <c r="H197" s="22"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="C198" s="18"/>
-      <c r="D198" s="18"/>
-      <c r="E198" s="18"/>
-      <c r="F198" s="18"/>
-      <c r="G198" s="18"/>
-      <c r="H198" s="18"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="22"/>
+      <c r="H198" s="22"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="C199" s="18"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="18"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
+      <c r="H199" s="22"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="C200" s="18"/>
-      <c r="D200" s="18"/>
-      <c r="E200" s="18"/>
-      <c r="F200" s="18"/>
-      <c r="G200" s="18"/>
-      <c r="H200" s="18"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="C201" s="18"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="18"/>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="22"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="C202" s="18"/>
-      <c r="D202" s="18"/>
-      <c r="E202" s="18"/>
-      <c r="F202" s="18"/>
-      <c r="G202" s="18"/>
-      <c r="H202" s="18"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="22"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
+      <c r="H202" s="22"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
-      <c r="E203" s="18"/>
-      <c r="F203" s="18"/>
-      <c r="G203" s="18"/>
-      <c r="H203" s="18"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="C204" s="18"/>
-      <c r="D204" s="18"/>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
-      <c r="H204" s="18"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="22"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="C205" s="18"/>
-      <c r="D205" s="18"/>
-      <c r="E205" s="18"/>
-      <c r="F205" s="18"/>
-      <c r="G205" s="18"/>
-      <c r="H205" s="18"/>
+      <c r="C205" s="22"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="22"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="C206" s="18"/>
-      <c r="D206" s="18"/>
-      <c r="E206" s="18"/>
-      <c r="F206" s="18"/>
-      <c r="G206" s="18"/>
-      <c r="H206" s="18"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="22"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="22"/>
+      <c r="G206" s="22"/>
+      <c r="H206" s="22"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="C207" s="18"/>
-      <c r="D207" s="18"/>
-      <c r="E207" s="18"/>
-      <c r="F207" s="18"/>
-      <c r="G207" s="18"/>
-      <c r="H207" s="18"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="22"/>
+      <c r="H207" s="22"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="C208" s="18"/>
-      <c r="D208" s="18"/>
-      <c r="E208" s="18"/>
-      <c r="F208" s="18"/>
-      <c r="G208" s="18"/>
-      <c r="H208" s="18"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="22"/>
+      <c r="H208" s="22"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="C209" s="18"/>
-      <c r="D209" s="18"/>
-      <c r="E209" s="18"/>
-      <c r="F209" s="18"/>
-      <c r="G209" s="18"/>
-      <c r="H209" s="18"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="22"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="22"/>
+      <c r="H209" s="22"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="18"/>
-      <c r="G210" s="18"/>
-      <c r="H210" s="18"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="22"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="22"/>
+      <c r="H210" s="22"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="C211" s="18"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="18"/>
-      <c r="F211" s="18"/>
-      <c r="G211" s="18"/>
-      <c r="H211" s="18"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="22"/>
+      <c r="H211" s="22"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="C212" s="18"/>
-      <c r="D212" s="18"/>
-      <c r="E212" s="18"/>
-      <c r="F212" s="18"/>
-      <c r="G212" s="18"/>
-      <c r="H212" s="18"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="22"/>
+      <c r="E212" s="22"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="22"/>
+      <c r="H212" s="22"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="C213" s="18"/>
-      <c r="D213" s="18"/>
-      <c r="E213" s="18"/>
-      <c r="F213" s="18"/>
-      <c r="G213" s="18"/>
-      <c r="H213" s="18"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="22"/>
+      <c r="H213" s="22"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="C214" s="18"/>
-      <c r="D214" s="18"/>
-      <c r="E214" s="18"/>
-      <c r="F214" s="18"/>
-      <c r="G214" s="18"/>
-      <c r="H214" s="18"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="22"/>
+      <c r="H214" s="22"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="C215" s="18"/>
-      <c r="D215" s="18"/>
-      <c r="E215" s="18"/>
-      <c r="F215" s="18"/>
-      <c r="G215" s="18"/>
-      <c r="H215" s="18"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="22"/>
+      <c r="E215" s="22"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="22"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="18"/>
-      <c r="D216" s="18"/>
-      <c r="E216" s="18"/>
-      <c r="F216" s="18"/>
-      <c r="G216" s="18"/>
-      <c r="H216" s="18"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="22"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="18"/>
-      <c r="D217" s="18"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="18"/>
-      <c r="G217" s="18"/>
-      <c r="H217" s="18"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="22"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="22"/>
+      <c r="H217" s="22"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="18"/>
-      <c r="D218" s="18"/>
-      <c r="E218" s="18"/>
-      <c r="F218" s="18"/>
-      <c r="G218" s="18"/>
-      <c r="H218" s="18"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
+      <c r="E218" s="22"/>
+      <c r="F218" s="22"/>
+      <c r="G218" s="22"/>
+      <c r="H218" s="22"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="18"/>
-      <c r="D219" s="18"/>
-      <c r="E219" s="18"/>
-      <c r="F219" s="18"/>
-      <c r="G219" s="18"/>
-      <c r="H219" s="18"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="22"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="18"/>
-      <c r="D220" s="18"/>
-      <c r="E220" s="18"/>
-      <c r="F220" s="18"/>
-      <c r="G220" s="18"/>
-      <c r="H220" s="18"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="22"/>
+      <c r="E220" s="22"/>
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="22"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="C221" s="18"/>
-      <c r="D221" s="18"/>
-      <c r="E221" s="18"/>
-      <c r="F221" s="18"/>
-      <c r="G221" s="18"/>
-      <c r="H221" s="18"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="C222" s="18"/>
-      <c r="D222" s="18"/>
-      <c r="E222" s="18"/>
-      <c r="F222" s="18"/>
-      <c r="G222" s="18"/>
-      <c r="H222" s="18"/>
+      <c r="C222" s="22"/>
+      <c r="D222" s="22"/>
+      <c r="E222" s="22"/>
+      <c r="F222" s="22"/>
+      <c r="G222" s="22"/>
+      <c r="H222" s="22"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="C223" s="18"/>
-      <c r="D223" s="18"/>
-      <c r="E223" s="18"/>
-      <c r="F223" s="18"/>
-      <c r="G223" s="18"/>
-      <c r="H223" s="18"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="22"/>
+      <c r="E223" s="22"/>
+      <c r="F223" s="22"/>
+      <c r="G223" s="22"/>
+      <c r="H223" s="22"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="C224" s="18"/>
-      <c r="D224" s="18"/>
-      <c r="E224" s="18"/>
-      <c r="F224" s="18"/>
-      <c r="G224" s="18"/>
-      <c r="H224" s="18"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="22"/>
+      <c r="E224" s="22"/>
+      <c r="F224" s="22"/>
+      <c r="G224" s="22"/>
+      <c r="H224" s="22"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="C225" s="18"/>
-      <c r="D225" s="18"/>
-      <c r="E225" s="18"/>
-      <c r="F225" s="18"/>
-      <c r="G225" s="18"/>
-      <c r="H225" s="18"/>
+      <c r="C225" s="22"/>
+      <c r="D225" s="22"/>
+      <c r="E225" s="22"/>
+      <c r="F225" s="22"/>
+      <c r="G225" s="22"/>
+      <c r="H225" s="22"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="C226" s="18"/>
-      <c r="D226" s="18"/>
-      <c r="E226" s="18"/>
-      <c r="F226" s="18"/>
-      <c r="G226" s="18"/>
-      <c r="H226" s="18"/>
+      <c r="C226" s="22"/>
+      <c r="D226" s="22"/>
+      <c r="E226" s="22"/>
+      <c r="F226" s="22"/>
+      <c r="G226" s="22"/>
+      <c r="H226" s="22"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="C227" s="18"/>
-      <c r="D227" s="18"/>
-      <c r="E227" s="18"/>
-      <c r="F227" s="18"/>
-      <c r="G227" s="18"/>
-      <c r="H227" s="18"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="22"/>
+      <c r="E227" s="22"/>
+      <c r="F227" s="22"/>
+      <c r="G227" s="22"/>
+      <c r="H227" s="22"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="C228" s="18"/>
-      <c r="D228" s="18"/>
-      <c r="E228" s="18"/>
-      <c r="F228" s="18"/>
-      <c r="G228" s="18"/>
-      <c r="H228" s="18"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="22"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="C229" s="18"/>
-      <c r="D229" s="18"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="18"/>
-      <c r="G229" s="18"/>
-      <c r="H229" s="18"/>
+      <c r="C229" s="22"/>
+      <c r="D229" s="22"/>
+      <c r="E229" s="22"/>
+      <c r="F229" s="22"/>
+      <c r="G229" s="22"/>
+      <c r="H229" s="22"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="C230" s="18"/>
-      <c r="D230" s="18"/>
-      <c r="E230" s="18"/>
-      <c r="F230" s="18"/>
-      <c r="G230" s="18"/>
-      <c r="H230" s="18"/>
+      <c r="C230" s="22"/>
+      <c r="D230" s="22"/>
+      <c r="E230" s="22"/>
+      <c r="F230" s="22"/>
+      <c r="G230" s="22"/>
+      <c r="H230" s="22"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="C231" s="18"/>
-      <c r="D231" s="18"/>
-      <c r="E231" s="18"/>
-      <c r="F231" s="18"/>
-      <c r="G231" s="18"/>
-      <c r="H231" s="18"/>
+      <c r="C231" s="22"/>
+      <c r="D231" s="22"/>
+      <c r="E231" s="22"/>
+      <c r="F231" s="22"/>
+      <c r="G231" s="22"/>
+      <c r="H231" s="22"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="C232" s="18"/>
-      <c r="D232" s="18"/>
-      <c r="E232" s="18"/>
-      <c r="F232" s="18"/>
-      <c r="G232" s="18"/>
-      <c r="H232" s="18"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
+      <c r="E232" s="22"/>
+      <c r="F232" s="22"/>
+      <c r="G232" s="22"/>
+      <c r="H232" s="22"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="C233" s="18"/>
-      <c r="D233" s="18"/>
-      <c r="E233" s="18"/>
-      <c r="F233" s="18"/>
-      <c r="G233" s="18"/>
-      <c r="H233" s="18"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="22"/>
+      <c r="E233" s="22"/>
+      <c r="F233" s="22"/>
+      <c r="G233" s="22"/>
+      <c r="H233" s="22"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="C234" s="18"/>
-      <c r="D234" s="18"/>
-      <c r="E234" s="18"/>
-      <c r="F234" s="18"/>
-      <c r="G234" s="18"/>
-      <c r="H234" s="18"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="22"/>
+      <c r="G234" s="22"/>
+      <c r="H234" s="22"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="C235" s="18"/>
-      <c r="D235" s="18"/>
-      <c r="E235" s="18"/>
-      <c r="F235" s="18"/>
-      <c r="G235" s="18"/>
-      <c r="H235" s="18"/>
+      <c r="C235" s="22"/>
+      <c r="D235" s="22"/>
+      <c r="E235" s="22"/>
+      <c r="F235" s="22"/>
+      <c r="G235" s="22"/>
+      <c r="H235" s="22"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="C236" s="18"/>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
-      <c r="F236" s="18"/>
-      <c r="G236" s="18"/>
-      <c r="H236" s="18"/>
+      <c r="C236" s="22"/>
+      <c r="D236" s="22"/>
+      <c r="E236" s="22"/>
+      <c r="F236" s="22"/>
+      <c r="G236" s="22"/>
+      <c r="H236" s="22"/>
     </row>
     <row r="237" ht="15.75" customHeight="1"/>
     <row r="238" ht="15.75" customHeight="1"/>
@@ -5087,110 +5116,110 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" ht="26.25" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="3">
+      <c r="C14" s="9">
         <v>0.6596</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="10">
         <v>0.7447</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="9">
         <v>0.7021</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="9">
         <v>0.7234</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="9">
         <v>0.7021</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="10">
         <v>0.7447</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
     </row>
     <row r="15" ht="26.25" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="9">
+      <c r="C15" s="13">
         <v>0.7383</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="13">
         <v>0.8104</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="13">
         <v>0.7751</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="13">
         <v>0.7924</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="13">
         <v>0.7722</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="13">
         <v>0.7936</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
     </row>
     <row r="16" ht="26.25" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>0.86</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="18">
         <v>0.9</v>
       </c>
       <c r="E16" s="3">
         <v>0.82</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="18">
         <v>1.0</v>
       </c>
       <c r="G16" s="3">
@@ -5221,8 +5250,8 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" ht="26.25" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3">
@@ -5231,13 +5260,13 @@
       <c r="D17" s="3">
         <v>0.78</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="18">
         <v>0.7</v>
       </c>
       <c r="F17" s="3">
         <v>0.92</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="23">
         <v>0.87</v>
       </c>
       <c r="H17" s="3">
@@ -5265,17 +5294,17 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" ht="26.25" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="18">
         <v>0.48</v>
       </c>
       <c r="D18" s="3">
         <v>0.61</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="18">
         <v>0.6</v>
       </c>
       <c r="F18" s="3">
@@ -5309,26 +5338,26 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" ht="26.25" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="18">
         <v>1.0</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="18">
         <v>1.0</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="18">
         <v>1.0</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="18">
         <v>1.0</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="18">
         <v>1.0</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="18">
         <v>1.0</v>
       </c>
       <c r="I19" s="4"/>
@@ -5353,8 +5382,8 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" ht="26.25" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3">
@@ -5397,8 +5426,8 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" ht="26.25" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="3">
@@ -5407,27 +5436,27 @@
       <c r="D21" s="3">
         <v>0.76</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="18">
         <v>0.7</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="18">
         <v>0.82</v>
       </c>
       <c r="G21" s="3">
         <v>0.73</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="18">
         <v>0.76</v>
       </c>
     </row>
     <row r="22" ht="26.25" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="18">
         <v>0.5</v>
       </c>
       <c r="D22" s="3">
@@ -5447,8 +5476,8 @@
       </c>
     </row>
     <row r="23" ht="26.25" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="3">
@@ -5471,23 +5500,23 @@
       </c>
     </row>
     <row r="24" ht="26.25" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="18">
         <v>0.73</v>
       </c>
       <c r="D24" s="3">
         <v>0.73</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="18">
         <v>0.6</v>
       </c>
       <c r="F24" s="3">
         <v>0.93</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="18">
         <v>0.73</v>
       </c>
       <c r="H24" s="3">
@@ -5495,32 +5524,32 @@
       </c>
     </row>
     <row r="25" ht="26.25" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="18">
         <v>1.0</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="18">
         <v>1.0</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="18">
         <v>1.0</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="18">
         <v>1.0</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="18">
         <v>1.0</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="26.25" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="3">
@@ -5543,8 +5572,8 @@
       </c>
     </row>
     <row r="27" ht="26.25" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="3">
@@ -5553,27 +5582,27 @@
       <c r="D27" s="3">
         <v>0.74</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="18">
         <v>0.7</v>
       </c>
       <c r="F27" s="3">
         <v>0.72</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="18">
         <v>0.7</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="18">
         <v>0.74</v>
       </c>
     </row>
     <row r="28" ht="26.25" customHeight="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="18">
         <v>0.63</v>
       </c>
       <c r="D28" s="3">
@@ -5585,16 +5614,16 @@
       <c r="F28" s="3">
         <v>0.74</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="18">
         <v>0.7</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="18">
         <v>0.7</v>
       </c>
     </row>
     <row r="29" ht="26.25" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="3">
@@ -5603,7 +5632,7 @@
       <c r="D29" s="3">
         <v>0.76</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="18">
         <v>0.72</v>
       </c>
       <c r="F29" s="3">
@@ -5612,13 +5641,13 @@
       <c r="G29" s="3">
         <v>0.76</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="18">
         <v>0.83</v>
       </c>
     </row>
     <row r="30" ht="26.25" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="3">
@@ -5627,7 +5656,7 @@
       <c r="D30" s="3">
         <v>0.67</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="18">
         <v>0.6</v>
       </c>
       <c r="F30" s="3">
@@ -5641,32 +5670,32 @@
       </c>
     </row>
     <row r="31" ht="26.25" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="18">
         <v>1.0</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="18">
         <v>1.0</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="18">
         <v>1.0</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="18">
         <v>1.0</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="18">
         <v>1.0</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="26.25" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="3">
@@ -5675,22 +5704,22 @@
       <c r="D32" s="3">
         <v>0.74</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="18">
         <v>0.7</v>
       </c>
       <c r="F32" s="3">
         <v>0.72</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="18">
         <v>0.7</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="18">
         <v>0.74</v>
       </c>
     </row>
     <row r="33" ht="26.25" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="3">
@@ -5713,8 +5742,8 @@
       </c>
     </row>
     <row r="34" ht="26.25" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="3">
@@ -5723,7 +5752,7 @@
       <c r="D34" s="3">
         <v>0.75</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="18">
         <v>0.7</v>
       </c>
       <c r="F34" s="3">
@@ -5732,7 +5761,7 @@
       <c r="G34" s="3">
         <v>0.71</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="18">
         <v>0.74</v>
       </c>
     </row>
@@ -5785,1604 +5814,1604 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="18"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="22"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="22"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="22"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="18"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="18"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
-      <c r="H145" s="18"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="18"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="22"/>
+      <c r="H150" s="22"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="22"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
+      <c r="H152" s="22"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="22"/>
+      <c r="H156" s="22"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="22"/>
+      <c r="H157" s="22"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="22"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="22"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="18"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="22"/>
+      <c r="H161" s="22"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="22"/>
+      <c r="H162" s="22"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="18"/>
-      <c r="H165" s="18"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="18"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="22"/>
+      <c r="H166" s="22"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="22"/>
+      <c r="H167" s="22"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="22"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="22"/>
+      <c r="H168" s="22"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
+      <c r="H169" s="22"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
+      <c r="E170" s="22"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22"/>
+      <c r="H170" s="22"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="22"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
+      <c r="H172" s="22"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="22"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="18"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="22"/>
+      <c r="H175" s="22"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
+      <c r="H176" s="22"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="C178" s="18"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="22"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="22"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="22"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="22"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="22"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
+      <c r="H181" s="22"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="18"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="22"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="18"/>
-      <c r="G183" s="18"/>
-      <c r="H183" s="18"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="22"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="22"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="18"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="22"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="22"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="18"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="22"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
+      <c r="H185" s="22"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="22"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
+      <c r="H186" s="22"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18"/>
-      <c r="F187" s="18"/>
-      <c r="G187" s="18"/>
-      <c r="H187" s="18"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="22"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="22"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="18"/>
-      <c r="G188" s="18"/>
-      <c r="H188" s="18"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
+      <c r="H188" s="22"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="C189" s="18"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18"/>
-      <c r="G189" s="18"/>
-      <c r="H189" s="18"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="18"/>
-      <c r="H190" s="18"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="22"/>
+      <c r="E190" s="22"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
+      <c r="H190" s="22"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="18"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="18"/>
-      <c r="H191" s="18"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="22"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
+      <c r="H191" s="22"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="18"/>
-      <c r="G192" s="18"/>
-      <c r="H192" s="18"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="22"/>
+      <c r="H192" s="22"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="18"/>
-      <c r="H193" s="18"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22"/>
+      <c r="H193" s="22"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="18"/>
-      <c r="H194" s="18"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="22"/>
+      <c r="E194" s="22"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="22"/>
+      <c r="H194" s="22"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="18"/>
-      <c r="H195" s="18"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="22"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
-      <c r="H196" s="18"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="22"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="22"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="C197" s="18"/>
-      <c r="D197" s="18"/>
-      <c r="E197" s="18"/>
-      <c r="F197" s="18"/>
-      <c r="G197" s="18"/>
-      <c r="H197" s="18"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
+      <c r="E197" s="22"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="22"/>
+      <c r="H197" s="22"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="C198" s="18"/>
-      <c r="D198" s="18"/>
-      <c r="E198" s="18"/>
-      <c r="F198" s="18"/>
-      <c r="G198" s="18"/>
-      <c r="H198" s="18"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="22"/>
+      <c r="H198" s="22"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="C199" s="18"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="18"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22"/>
+      <c r="E199" s="22"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
+      <c r="H199" s="22"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="C200" s="18"/>
-      <c r="D200" s="18"/>
-      <c r="E200" s="18"/>
-      <c r="F200" s="18"/>
-      <c r="G200" s="18"/>
-      <c r="H200" s="18"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="C201" s="18"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="18"/>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="22"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="C202" s="18"/>
-      <c r="D202" s="18"/>
-      <c r="E202" s="18"/>
-      <c r="F202" s="18"/>
-      <c r="G202" s="18"/>
-      <c r="H202" s="18"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="22"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
+      <c r="H202" s="22"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
-      <c r="E203" s="18"/>
-      <c r="F203" s="18"/>
-      <c r="G203" s="18"/>
-      <c r="H203" s="18"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
+      <c r="E203" s="22"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="C204" s="18"/>
-      <c r="D204" s="18"/>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
-      <c r="H204" s="18"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
+      <c r="E204" s="22"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="22"/>
+      <c r="H204" s="22"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="C205" s="18"/>
-      <c r="D205" s="18"/>
-      <c r="E205" s="18"/>
-      <c r="F205" s="18"/>
-      <c r="G205" s="18"/>
-      <c r="H205" s="18"/>
+      <c r="C205" s="22"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="22"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="C206" s="18"/>
-      <c r="D206" s="18"/>
-      <c r="E206" s="18"/>
-      <c r="F206" s="18"/>
-      <c r="G206" s="18"/>
-      <c r="H206" s="18"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="22"/>
+      <c r="E206" s="22"/>
+      <c r="F206" s="22"/>
+      <c r="G206" s="22"/>
+      <c r="H206" s="22"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="C207" s="18"/>
-      <c r="D207" s="18"/>
-      <c r="E207" s="18"/>
-      <c r="F207" s="18"/>
-      <c r="G207" s="18"/>
-      <c r="H207" s="18"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="22"/>
+      <c r="H207" s="22"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="C208" s="18"/>
-      <c r="D208" s="18"/>
-      <c r="E208" s="18"/>
-      <c r="F208" s="18"/>
-      <c r="G208" s="18"/>
-      <c r="H208" s="18"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="22"/>
+      <c r="H208" s="22"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="C209" s="18"/>
-      <c r="D209" s="18"/>
-      <c r="E209" s="18"/>
-      <c r="F209" s="18"/>
-      <c r="G209" s="18"/>
-      <c r="H209" s="18"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="22"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="22"/>
+      <c r="H209" s="22"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="18"/>
-      <c r="G210" s="18"/>
-      <c r="H210" s="18"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="22"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="22"/>
+      <c r="H210" s="22"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="C211" s="18"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="18"/>
-      <c r="F211" s="18"/>
-      <c r="G211" s="18"/>
-      <c r="H211" s="18"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="22"/>
+      <c r="H211" s="22"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="C212" s="18"/>
-      <c r="D212" s="18"/>
-      <c r="E212" s="18"/>
-      <c r="F212" s="18"/>
-      <c r="G212" s="18"/>
-      <c r="H212" s="18"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="22"/>
+      <c r="E212" s="22"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="22"/>
+      <c r="H212" s="22"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="C213" s="18"/>
-      <c r="D213" s="18"/>
-      <c r="E213" s="18"/>
-      <c r="F213" s="18"/>
-      <c r="G213" s="18"/>
-      <c r="H213" s="18"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="22"/>
+      <c r="H213" s="22"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="C214" s="18"/>
-      <c r="D214" s="18"/>
-      <c r="E214" s="18"/>
-      <c r="F214" s="18"/>
-      <c r="G214" s="18"/>
-      <c r="H214" s="18"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="22"/>
+      <c r="H214" s="22"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="C215" s="18"/>
-      <c r="D215" s="18"/>
-      <c r="E215" s="18"/>
-      <c r="F215" s="18"/>
-      <c r="G215" s="18"/>
-      <c r="H215" s="18"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="22"/>
+      <c r="E215" s="22"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="22"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="18"/>
-      <c r="D216" s="18"/>
-      <c r="E216" s="18"/>
-      <c r="F216" s="18"/>
-      <c r="G216" s="18"/>
-      <c r="H216" s="18"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="22"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="18"/>
-      <c r="D217" s="18"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="18"/>
-      <c r="G217" s="18"/>
-      <c r="H217" s="18"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="22"/>
+      <c r="E217" s="22"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="22"/>
+      <c r="H217" s="22"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="18"/>
-      <c r="D218" s="18"/>
-      <c r="E218" s="18"/>
-      <c r="F218" s="18"/>
-      <c r="G218" s="18"/>
-      <c r="H218" s="18"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
+      <c r="E218" s="22"/>
+      <c r="F218" s="22"/>
+      <c r="G218" s="22"/>
+      <c r="H218" s="22"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="18"/>
-      <c r="D219" s="18"/>
-      <c r="E219" s="18"/>
-      <c r="F219" s="18"/>
-      <c r="G219" s="18"/>
-      <c r="H219" s="18"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="22"/>
+      <c r="H219" s="22"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="18"/>
-      <c r="D220" s="18"/>
-      <c r="E220" s="18"/>
-      <c r="F220" s="18"/>
-      <c r="G220" s="18"/>
-      <c r="H220" s="18"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="22"/>
+      <c r="E220" s="22"/>
+      <c r="F220" s="22"/>
+      <c r="G220" s="22"/>
+      <c r="H220" s="22"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="C221" s="18"/>
-      <c r="D221" s="18"/>
-      <c r="E221" s="18"/>
-      <c r="F221" s="18"/>
-      <c r="G221" s="18"/>
-      <c r="H221" s="18"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="C222" s="18"/>
-      <c r="D222" s="18"/>
-      <c r="E222" s="18"/>
-      <c r="F222" s="18"/>
-      <c r="G222" s="18"/>
-      <c r="H222" s="18"/>
+      <c r="C222" s="22"/>
+      <c r="D222" s="22"/>
+      <c r="E222" s="22"/>
+      <c r="F222" s="22"/>
+      <c r="G222" s="22"/>
+      <c r="H222" s="22"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="C223" s="18"/>
-      <c r="D223" s="18"/>
-      <c r="E223" s="18"/>
-      <c r="F223" s="18"/>
-      <c r="G223" s="18"/>
-      <c r="H223" s="18"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="22"/>
+      <c r="E223" s="22"/>
+      <c r="F223" s="22"/>
+      <c r="G223" s="22"/>
+      <c r="H223" s="22"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="C224" s="18"/>
-      <c r="D224" s="18"/>
-      <c r="E224" s="18"/>
-      <c r="F224" s="18"/>
-      <c r="G224" s="18"/>
-      <c r="H224" s="18"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="22"/>
+      <c r="E224" s="22"/>
+      <c r="F224" s="22"/>
+      <c r="G224" s="22"/>
+      <c r="H224" s="22"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="C225" s="18"/>
-      <c r="D225" s="18"/>
-      <c r="E225" s="18"/>
-      <c r="F225" s="18"/>
-      <c r="G225" s="18"/>
-      <c r="H225" s="18"/>
+      <c r="C225" s="22"/>
+      <c r="D225" s="22"/>
+      <c r="E225" s="22"/>
+      <c r="F225" s="22"/>
+      <c r="G225" s="22"/>
+      <c r="H225" s="22"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="C226" s="18"/>
-      <c r="D226" s="18"/>
-      <c r="E226" s="18"/>
-      <c r="F226" s="18"/>
-      <c r="G226" s="18"/>
-      <c r="H226" s="18"/>
+      <c r="C226" s="22"/>
+      <c r="D226" s="22"/>
+      <c r="E226" s="22"/>
+      <c r="F226" s="22"/>
+      <c r="G226" s="22"/>
+      <c r="H226" s="22"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="C227" s="18"/>
-      <c r="D227" s="18"/>
-      <c r="E227" s="18"/>
-      <c r="F227" s="18"/>
-      <c r="G227" s="18"/>
-      <c r="H227" s="18"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="22"/>
+      <c r="E227" s="22"/>
+      <c r="F227" s="22"/>
+      <c r="G227" s="22"/>
+      <c r="H227" s="22"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="C228" s="18"/>
-      <c r="D228" s="18"/>
-      <c r="E228" s="18"/>
-      <c r="F228" s="18"/>
-      <c r="G228" s="18"/>
-      <c r="H228" s="18"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="22"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="C229" s="18"/>
-      <c r="D229" s="18"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="18"/>
-      <c r="G229" s="18"/>
-      <c r="H229" s="18"/>
+      <c r="C229" s="22"/>
+      <c r="D229" s="22"/>
+      <c r="E229" s="22"/>
+      <c r="F229" s="22"/>
+      <c r="G229" s="22"/>
+      <c r="H229" s="22"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="C230" s="18"/>
-      <c r="D230" s="18"/>
-      <c r="E230" s="18"/>
-      <c r="F230" s="18"/>
-      <c r="G230" s="18"/>
-      <c r="H230" s="18"/>
+      <c r="C230" s="22"/>
+      <c r="D230" s="22"/>
+      <c r="E230" s="22"/>
+      <c r="F230" s="22"/>
+      <c r="G230" s="22"/>
+      <c r="H230" s="22"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="C231" s="18"/>
-      <c r="D231" s="18"/>
-      <c r="E231" s="18"/>
-      <c r="F231" s="18"/>
-      <c r="G231" s="18"/>
-      <c r="H231" s="18"/>
+      <c r="C231" s="22"/>
+      <c r="D231" s="22"/>
+      <c r="E231" s="22"/>
+      <c r="F231" s="22"/>
+      <c r="G231" s="22"/>
+      <c r="H231" s="22"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="C232" s="18"/>
-      <c r="D232" s="18"/>
-      <c r="E232" s="18"/>
-      <c r="F232" s="18"/>
-      <c r="G232" s="18"/>
-      <c r="H232" s="18"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
+      <c r="E232" s="22"/>
+      <c r="F232" s="22"/>
+      <c r="G232" s="22"/>
+      <c r="H232" s="22"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="C233" s="18"/>
-      <c r="D233" s="18"/>
-      <c r="E233" s="18"/>
-      <c r="F233" s="18"/>
-      <c r="G233" s="18"/>
-      <c r="H233" s="18"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="22"/>
+      <c r="E233" s="22"/>
+      <c r="F233" s="22"/>
+      <c r="G233" s="22"/>
+      <c r="H233" s="22"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="C234" s="18"/>
-      <c r="D234" s="18"/>
-      <c r="E234" s="18"/>
-      <c r="F234" s="18"/>
-      <c r="G234" s="18"/>
-      <c r="H234" s="18"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="22"/>
+      <c r="G234" s="22"/>
+      <c r="H234" s="22"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="C235" s="18"/>
-      <c r="D235" s="18"/>
-      <c r="E235" s="18"/>
-      <c r="F235" s="18"/>
-      <c r="G235" s="18"/>
-      <c r="H235" s="18"/>
+      <c r="C235" s="22"/>
+      <c r="D235" s="22"/>
+      <c r="E235" s="22"/>
+      <c r="F235" s="22"/>
+      <c r="G235" s="22"/>
+      <c r="H235" s="22"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="C236" s="18"/>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
-      <c r="F236" s="18"/>
-      <c r="G236" s="18"/>
-      <c r="H236" s="18"/>
+      <c r="C236" s="22"/>
+      <c r="D236" s="22"/>
+      <c r="E236" s="22"/>
+      <c r="F236" s="22"/>
+      <c r="G236" s="22"/>
+      <c r="H236" s="22"/>
     </row>
     <row r="237" ht="15.75" customHeight="1"/>
     <row r="238" ht="15.75" customHeight="1"/>
@@ -8193,36 +8222,36 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="26">
         <f>0.00001</f>
         <v>0.00001</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="26">
         <f>0.00002</f>
         <v>0.00002</v>
       </c>
@@ -8241,93 +8270,93 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="2"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="2"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -12653,74 +12682,78 @@
       <c r="X13" s="4"/>
     </row>
     <row r="14" ht="26.25" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="3">
+      <c r="C14" s="9">
         <v>0.7872</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="9">
         <v>0.7872</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
     </row>
     <row r="15" ht="26.25" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="9">
+      <c r="C15" s="13">
         <v>0.8393</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="13">
         <v>0.8361</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
     </row>
     <row r="16" ht="26.25" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="3">
@@ -12751,8 +12784,8 @@
       <c r="X16" s="4"/>
     </row>
     <row r="17" ht="26.25" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3">
@@ -12783,11 +12816,11 @@
       <c r="X17" s="4"/>
     </row>
     <row r="18" ht="26.25" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="18">
         <v>0.63</v>
       </c>
       <c r="D18" s="3">
@@ -12815,14 +12848,14 @@
       <c r="X18" s="4"/>
     </row>
     <row r="19" ht="26.25" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="18">
         <v>1.0</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="18">
         <v>1.0</v>
       </c>
       <c r="E19" s="4"/>
@@ -12847,8 +12880,8 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" ht="26.25" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3">
@@ -12879,25 +12912,25 @@
       <c r="X20" s="4"/>
     </row>
     <row r="21" ht="26.25" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="3">
         <v>0.81</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="18">
         <v>0.81</v>
       </c>
     </row>
     <row r="22" ht="26.25" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="18">
         <v>0.75</v>
       </c>
       <c r="D22" s="3">
@@ -12905,8 +12938,8 @@
       </c>
     </row>
     <row r="23" ht="26.25" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="3">
@@ -12917,11 +12950,11 @@
       </c>
     </row>
     <row r="24" ht="26.25" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="18">
         <v>0.8</v>
       </c>
       <c r="D24" s="3">
@@ -12929,20 +12962,20 @@
       </c>
     </row>
     <row r="25" ht="26.25" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="18">
         <v>1.0</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="18">
         <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="26.25" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="3">
@@ -12953,46 +12986,46 @@
       </c>
     </row>
     <row r="27" ht="26.25" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="3">
         <v>0.79</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="18">
         <v>0.79</v>
       </c>
     </row>
     <row r="28" ht="26.25" customHeight="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="18">
         <v>0.82</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="18">
         <v>0.79</v>
       </c>
     </row>
     <row r="29" ht="26.25" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="3">
         <v>0.83</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="18">
         <v>0.79</v>
       </c>
     </row>
     <row r="30" ht="26.25" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="3">
@@ -13003,33 +13036,33 @@
       </c>
     </row>
     <row r="31" ht="26.25" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="18">
         <v>1.0</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="18">
         <v>1.0</v>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" ht="26.25" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="3">
         <v>0.79</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="18">
         <v>0.79</v>
       </c>
     </row>
     <row r="33" ht="26.25" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="3">
@@ -13040,14 +13073,14 @@
       </c>
     </row>
     <row r="34" ht="26.25" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="3">
         <v>0.79</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="18">
         <v>0.79</v>
       </c>
     </row>
@@ -13076,804 +13109,804 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="22"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="22"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="22"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="22"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="22"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="22"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="C178" s="18"/>
-      <c r="D178" s="18"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="22"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="22"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="22"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="22"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="22"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="22"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="22"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="22"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="C189" s="18"/>
-      <c r="D189" s="18"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="22"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="22"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="22"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="22"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="C197" s="18"/>
-      <c r="D197" s="18"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="C198" s="18"/>
-      <c r="D198" s="18"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="C199" s="18"/>
-      <c r="D199" s="18"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="C200" s="18"/>
-      <c r="D200" s="18"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="22"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="C201" s="18"/>
-      <c r="D201" s="18"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="C202" s="18"/>
-      <c r="D202" s="18"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="22"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="C204" s="18"/>
-      <c r="D204" s="18"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="C205" s="18"/>
-      <c r="D205" s="18"/>
+      <c r="C205" s="22"/>
+      <c r="D205" s="22"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="C206" s="18"/>
-      <c r="D206" s="18"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="22"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="C207" s="18"/>
-      <c r="D207" s="18"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="C208" s="18"/>
-      <c r="D208" s="18"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="C209" s="18"/>
-      <c r="D209" s="18"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="22"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="22"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="C211" s="18"/>
-      <c r="D211" s="18"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="C212" s="18"/>
-      <c r="D212" s="18"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="22"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="C213" s="18"/>
-      <c r="D213" s="18"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="C214" s="18"/>
-      <c r="D214" s="18"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="C215" s="18"/>
-      <c r="D215" s="18"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="22"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="18"/>
-      <c r="D216" s="18"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="22"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="18"/>
-      <c r="D217" s="18"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="22"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="18"/>
-      <c r="D218" s="18"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="18"/>
-      <c r="D219" s="18"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="18"/>
-      <c r="D220" s="18"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="22"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="C221" s="18"/>
-      <c r="D221" s="18"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="C222" s="18"/>
-      <c r="D222" s="18"/>
+      <c r="C222" s="22"/>
+      <c r="D222" s="22"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="C223" s="18"/>
-      <c r="D223" s="18"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="22"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="C224" s="18"/>
-      <c r="D224" s="18"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="22"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="C225" s="18"/>
-      <c r="D225" s="18"/>
+      <c r="C225" s="22"/>
+      <c r="D225" s="22"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="C226" s="18"/>
-      <c r="D226" s="18"/>
+      <c r="C226" s="22"/>
+      <c r="D226" s="22"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="C227" s="18"/>
-      <c r="D227" s="18"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="22"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="C228" s="18"/>
-      <c r="D228" s="18"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="C229" s="18"/>
-      <c r="D229" s="18"/>
+      <c r="C229" s="22"/>
+      <c r="D229" s="22"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="C230" s="18"/>
-      <c r="D230" s="18"/>
+      <c r="C230" s="22"/>
+      <c r="D230" s="22"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="C231" s="18"/>
-      <c r="D231" s="18"/>
+      <c r="C231" s="22"/>
+      <c r="D231" s="22"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="C232" s="18"/>
-      <c r="D232" s="18"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="C233" s="18"/>
-      <c r="D233" s="18"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="22"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="C234" s="18"/>
-      <c r="D234" s="18"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="C235" s="18"/>
-      <c r="D235" s="18"/>
+      <c r="C235" s="22"/>
+      <c r="D235" s="22"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="C236" s="18"/>
-      <c r="D236" s="18"/>
+      <c r="C236" s="22"/>
+      <c r="D236" s="22"/>
     </row>
     <row r="237" ht="15.75" customHeight="1"/>
     <row r="238" ht="15.75" customHeight="1"/>
@@ -14677,12 +14710,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="4">
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25">
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="34" t="s">
         <v>56</v>
       </c>
     </row>
@@ -14693,4 +14726,502 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="20.5"/>
+    <col customWidth="1" min="4" max="4" width="22.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3">
+        <f>0.00002</f>
+        <v>0.00002</v>
+      </c>
+      <c r="D2" s="3">
+        <f>0.00001</f>
+        <v>0.00001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3">
+        <f>0.0002</f>
+        <v>0.0002</v>
+      </c>
+      <c r="D3" s="3">
+        <f>0.0001</f>
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3">
+        <f t="shared" ref="C7:D7" si="1">C5*C6</f>
+        <v>600</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>226.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3">
+        <v>145.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2723.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="36">
+        <v>600.0</v>
+      </c>
+      <c r="D11" s="36">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3">
+        <v>0.047816</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.36E-4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="6">
+        <v>1.50633</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3.593393</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3">
+        <v>0.7872</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.7872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="9">
+        <v>0.7872</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.7872</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="13">
+        <v>0.8393</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.8361</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="17"/>
+      <c r="B21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="19"/>
+      <c r="B22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="17"/>
+      <c r="B24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="17"/>
+      <c r="B26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="17"/>
+      <c r="B27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19"/>
+      <c r="B28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0.82</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="17"/>
+      <c r="B32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="17"/>
+      <c r="B33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="17"/>
+      <c r="B34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="19"/>
+      <c r="B35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D35" s="18">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>